--- a/__mocks__/Preguntas Completas Por Tipo/preguntaSubjetivas.xlsx
+++ b/__mocks__/Preguntas Completas Por Tipo/preguntaSubjetivas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sullc\Documents\TPI\Workspace\TPIntegrador\Angular\TPI-Front\__mocks__\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tpi2\git\TPI-Front\__mocks__\Preguntas Completas Por Tipo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C9CE9A5-9345-4CB9-9559-37E667BE23A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BEB73F2-543A-403B-9902-DF6E2830A34F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{EA040AEE-35B0-4F5B-AEF3-29BB44B005B2}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{EA040AEE-35B0-4F5B-AEF3-29BB44B005B2}"/>
   </bookViews>
   <sheets>
     <sheet name="categoria" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="97">
   <si>
     <t>nombre</t>
   </si>
@@ -204,6 +204,132 @@
   </si>
   <si>
     <t>""</t>
+  </si>
+  <si>
+    <t>codigo</t>
+  </si>
+  <si>
+    <t>RS1</t>
+  </si>
+  <si>
+    <t>RS2</t>
+  </si>
+  <si>
+    <t>RS3</t>
+  </si>
+  <si>
+    <t>RS4</t>
+  </si>
+  <si>
+    <t>RS5</t>
+  </si>
+  <si>
+    <t>RS6</t>
+  </si>
+  <si>
+    <t>RS7</t>
+  </si>
+  <si>
+    <t>RS8</t>
+  </si>
+  <si>
+    <t>RS9</t>
+  </si>
+  <si>
+    <t>RS10</t>
+  </si>
+  <si>
+    <t>RS11</t>
+  </si>
+  <si>
+    <t>RS12</t>
+  </si>
+  <si>
+    <t>RS13</t>
+  </si>
+  <si>
+    <t>RS14</t>
+  </si>
+  <si>
+    <t>RS15</t>
+  </si>
+  <si>
+    <t>RS16</t>
+  </si>
+  <si>
+    <t>RS17</t>
+  </si>
+  <si>
+    <t>RS18</t>
+  </si>
+  <si>
+    <t>RS19</t>
+  </si>
+  <si>
+    <t>RS20</t>
+  </si>
+  <si>
+    <t>RS21</t>
+  </si>
+  <si>
+    <t>RS22</t>
+  </si>
+  <si>
+    <t>RS23</t>
+  </si>
+  <si>
+    <t>RS24</t>
+  </si>
+  <si>
+    <t>RS25</t>
+  </si>
+  <si>
+    <t>RS26</t>
+  </si>
+  <si>
+    <t>RS27</t>
+  </si>
+  <si>
+    <t>RS28</t>
+  </si>
+  <si>
+    <t>RS29</t>
+  </si>
+  <si>
+    <t>RS30</t>
+  </si>
+  <si>
+    <t>RS31</t>
+  </si>
+  <si>
+    <t>RS32</t>
+  </si>
+  <si>
+    <t>RS33</t>
+  </si>
+  <si>
+    <t>RS34</t>
+  </si>
+  <si>
+    <t>RS35</t>
+  </si>
+  <si>
+    <t>PS1</t>
+  </si>
+  <si>
+    <t>PS2</t>
+  </si>
+  <si>
+    <t>PS3</t>
+  </si>
+  <si>
+    <t>PS4</t>
+  </si>
+  <si>
+    <t>PS5</t>
+  </si>
+  <si>
+    <t>PS6</t>
   </si>
 </sst>
 </file>
@@ -270,7 +396,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -285,6 +411,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -601,17 +728,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D67F1D32-4EEB-430C-A9B4-3504E8B95258}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="29" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -622,7 +749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -644,15 +771,15 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD17"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18.140625" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -663,7 +790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -671,7 +798,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -690,19 +817,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E557A189-07BD-4DD4-AE4E-E2A608F405F0}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="54.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -721,8 +849,11 @@
       <c r="F1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -741,8 +872,11 @@
       <c r="F2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G2" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -761,8 +895,11 @@
       <c r="F3" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G3" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -781,8 +918,11 @@
       <c r="F4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G4" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -801,8 +941,11 @@
       <c r="F5" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G5" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -821,8 +964,11 @@
       <c r="F6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G6" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -841,11 +987,14 @@
       <c r="F7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="1"/>
+      <c r="G7" s="6" t="s">
+        <v>96</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -853,18 +1002,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8759312-058C-4473-8FFB-A755D6FBD3C0}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37:XFD72"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34:F36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="24" customWidth="1"/>
-    <col min="6" max="6" width="68.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="49.5703125" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" customWidth="1"/>
+    <col min="11" max="11" width="49.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -883,8 +1032,11 @@
       <c r="F1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -900,11 +1052,14 @@
       <c r="E2">
         <v>1</v>
       </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F2" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -920,11 +1075,14 @@
       <c r="E3">
         <v>2</v>
       </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F3" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -940,11 +1098,14 @@
       <c r="E4">
         <v>3</v>
       </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F4" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -960,11 +1121,14 @@
       <c r="E5">
         <v>4</v>
       </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F5" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -980,11 +1144,14 @@
       <c r="E6">
         <v>5</v>
       </c>
-      <c r="F6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F6" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1000,11 +1167,14 @@
       <c r="E7">
         <v>6</v>
       </c>
-      <c r="F7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F7" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1020,12 +1190,15 @@
       <c r="E8">
         <v>1</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>22</v>
+      <c r="F8" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1041,11 +1214,14 @@
       <c r="E9">
         <v>2</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F9" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1061,11 +1237,14 @@
       <c r="E10">
         <v>3</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F10" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1081,11 +1260,14 @@
       <c r="E11">
         <v>1</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F11" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1101,11 +1283,14 @@
       <c r="E12">
         <v>2</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F12" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1121,11 +1306,14 @@
       <c r="E13">
         <v>3</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F13" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1141,11 +1329,14 @@
       <c r="E14">
         <v>1</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F14" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1161,11 +1352,14 @@
       <c r="E15">
         <v>2</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F15" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1181,11 +1375,14 @@
       <c r="E16">
         <v>3</v>
       </c>
-      <c r="F16" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F16" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1201,11 +1398,14 @@
       <c r="E17">
         <v>1</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F17" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1221,11 +1421,14 @@
       <c r="E18">
         <v>2</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F18" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1241,11 +1444,14 @@
       <c r="E19">
         <v>3</v>
       </c>
-      <c r="F19" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F19" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1261,11 +1467,14 @@
       <c r="E20">
         <v>1</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F20" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1281,11 +1490,14 @@
       <c r="E21">
         <v>2</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F21" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1301,11 +1513,14 @@
       <c r="E22">
         <v>3</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F22" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1321,11 +1536,14 @@
       <c r="E23">
         <v>1</v>
       </c>
-      <c r="F23" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F23" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1341,12 +1559,15 @@
       <c r="E24">
         <v>2</v>
       </c>
-      <c r="F24" t="s">
-        <v>29</v>
+      <c r="F24" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>78</v>
       </c>
       <c r="K24" s="2"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1362,12 +1583,15 @@
       <c r="E25">
         <v>3</v>
       </c>
-      <c r="F25" t="s">
-        <v>29</v>
+      <c r="F25" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="K25" s="2"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1383,12 +1607,15 @@
       <c r="E26">
         <v>4</v>
       </c>
-      <c r="F26" t="s">
-        <v>29</v>
+      <c r="F26" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>80</v>
       </c>
       <c r="K26" s="2"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1404,12 +1631,15 @@
       <c r="E27">
         <v>1</v>
       </c>
-      <c r="F27" s="3" t="s">
-        <v>40</v>
+      <c r="F27" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>81</v>
       </c>
       <c r="K27" s="2"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1425,12 +1655,15 @@
       <c r="E28">
         <v>2</v>
       </c>
-      <c r="F28" s="3" t="s">
-        <v>40</v>
+      <c r="F28" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>82</v>
       </c>
       <c r="K28" s="2"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1446,12 +1679,15 @@
       <c r="E29">
         <v>3</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>40</v>
+      <c r="F29" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>83</v>
       </c>
       <c r="K29" s="2"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1467,12 +1703,15 @@
       <c r="E30">
         <v>4</v>
       </c>
-      <c r="F30" s="3" t="s">
-        <v>40</v>
+      <c r="F30" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>84</v>
       </c>
       <c r="K30" s="2"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1488,12 +1727,15 @@
       <c r="E31">
         <v>1</v>
       </c>
-      <c r="F31" s="5" t="s">
-        <v>45</v>
+      <c r="F31" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>85</v>
       </c>
       <c r="K31" s="2"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1509,12 +1751,15 @@
       <c r="E32">
         <v>2</v>
       </c>
-      <c r="F32" s="5" t="s">
-        <v>45</v>
+      <c r="F32" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>86</v>
       </c>
       <c r="K32" s="2"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1530,12 +1775,15 @@
       <c r="E33">
         <v>3</v>
       </c>
-      <c r="F33" s="5" t="s">
-        <v>45</v>
+      <c r="F33" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>87</v>
       </c>
       <c r="K33" s="2"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1551,12 +1799,15 @@
       <c r="E34">
         <v>1</v>
       </c>
-      <c r="F34" s="5" t="s">
-        <v>49</v>
+      <c r="F34" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>88</v>
       </c>
       <c r="K34" s="2"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1572,12 +1823,15 @@
       <c r="E35">
         <v>2</v>
       </c>
-      <c r="F35" s="5" t="s">
-        <v>49</v>
+      <c r="F35" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>89</v>
       </c>
       <c r="K35" s="2"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1593,8 +1847,11 @@
       <c r="E36">
         <v>3</v>
       </c>
-      <c r="F36" s="5" t="s">
-        <v>49</v>
+      <c r="F36" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>90</v>
       </c>
       <c r="K36" s="2"/>
     </row>
@@ -1605,23 +1862,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="87ddcb0d-d42d-44d1-b07a-22e3752ef0c9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100641454CD1F1E6E428D478A5DC37BACE7" ma:contentTypeVersion="8" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="ef1708d85dca7377bd826ec35b62ca84">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="87ddcb0d-d42d-44d1-b07a-22e3752ef0c9" xmlns:ns4="7798dcc9-908f-468f-826a-c598f412d6fc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="69e720de7d55d3231f99e1910e4c19d8" ns3:_="" ns4:_="">
     <xsd:import namespace="87ddcb0d-d42d-44d1-b07a-22e3752ef0c9"/>
@@ -1810,10 +2050,38 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="87ddcb0d-d42d-44d1-b07a-22e3752ef0c9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0FE838D2-67DD-483F-BECE-425D67F53E63}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7274836D-657B-48C7-97FD-AD88493854E7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="87ddcb0d-d42d-44d1-b07a-22e3752ef0c9"/>
+    <ds:schemaRef ds:uri="7798dcc9-908f-468f-826a-c598f412d6fc"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1836,20 +2104,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7274836D-657B-48C7-97FD-AD88493854E7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0FE838D2-67DD-483F-BECE-425D67F53E63}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="87ddcb0d-d42d-44d1-b07a-22e3752ef0c9"/>
-    <ds:schemaRef ds:uri="7798dcc9-908f-468f-826a-c598f412d6fc"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/__mocks__/Preguntas Completas Por Tipo/preguntaSubjetivas.xlsx
+++ b/__mocks__/Preguntas Completas Por Tipo/preguntaSubjetivas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tpi2\git\TPI-Front\__mocks__\Preguntas Completas Por Tipo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sullc\Documents\TPI\Workspace\TPIntegrador\Angular\TPI-Front\__mocks__\Preguntas Completas Por Tipo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BEB73F2-543A-403B-9902-DF6E2830A34F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9C46A8B-DB85-428A-89F2-248CC0C102E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{EA040AEE-35B0-4F5B-AEF3-29BB44B005B2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="3" xr2:uid="{EA040AEE-35B0-4F5B-AEF3-29BB44B005B2}"/>
   </bookViews>
   <sheets>
     <sheet name="categoria" sheetId="1" r:id="rId1"/>
@@ -336,7 +336,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -375,6 +375,12 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -411,7 +417,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -732,13 +738,13 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="29" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -749,7 +755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -774,12 +780,12 @@
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.109375" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -790,7 +796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -798,7 +804,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -817,20 +823,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E557A189-07BD-4DD4-AE4E-E2A608F405F0}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="54.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -853,141 +859,141 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="5" t="s">
         <v>24</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C4" t="s">
         <v>30</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="5" t="s">
         <v>40</v>
       </c>
       <c r="C5" t="s">
         <v>31</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="6" t="s">
         <v>45</v>
       </c>
       <c r="C6" t="s">
         <v>32</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="5" t="s">
         <v>49</v>
       </c>
       <c r="C7" t="s">
         <v>33</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" t="s">
         <v>96</v>
       </c>
     </row>
@@ -1002,18 +1008,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8759312-058C-4473-8FFB-A755D6FBD3C0}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34:F36"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="24" customWidth="1"/>
-    <col min="6" max="6" width="11.5546875" customWidth="1"/>
-    <col min="11" max="11" width="49.5546875" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" customWidth="1"/>
+    <col min="11" max="11" width="49.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -1036,14 +1042,14 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>54</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="6" t="s">
         <v>16</v>
       </c>
       <c r="D2">
@@ -1052,21 +1058,21 @@
       <c r="E2">
         <v>1</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" t="s">
         <v>91</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D3">
@@ -1075,21 +1081,21 @@
       <c r="E3">
         <v>2</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" t="s">
         <v>91</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>54</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D4">
@@ -1098,21 +1104,21 @@
       <c r="E4">
         <v>3</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" t="s">
         <v>91</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>54</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D5">
@@ -1121,21 +1127,21 @@
       <c r="E5">
         <v>4</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>54</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D6">
@@ -1144,21 +1150,21 @@
       <c r="E6">
         <v>5</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" t="s">
         <v>91</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>54</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D7">
@@ -1167,21 +1173,21 @@
       <c r="E7">
         <v>6</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" t="s">
         <v>91</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="6" t="s">
         <v>26</v>
       </c>
       <c r="D8">
@@ -1190,22 +1196,22 @@
       <c r="E8">
         <v>1</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" t="s">
         <v>92</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" t="s">
         <v>62</v>
       </c>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="6" t="s">
         <v>27</v>
       </c>
       <c r="D9">
@@ -1214,21 +1220,21 @@
       <c r="E9">
         <v>2</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" t="s">
         <v>92</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="6" t="s">
         <v>28</v>
       </c>
       <c r="D10">
@@ -1237,21 +1243,21 @@
       <c r="E10">
         <v>3</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" t="s">
         <v>92</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>18</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="6" t="s">
         <v>26</v>
       </c>
       <c r="D11">
@@ -1260,21 +1266,21 @@
       <c r="E11">
         <v>1</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" t="s">
         <v>92</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>18</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="6" t="s">
         <v>27</v>
       </c>
       <c r="D12">
@@ -1283,21 +1289,21 @@
       <c r="E12">
         <v>2</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" t="s">
         <v>92</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>18</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="6" t="s">
         <v>28</v>
       </c>
       <c r="D13">
@@ -1306,21 +1312,21 @@
       <c r="E13">
         <v>3</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" t="s">
         <v>92</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>19</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="6" t="s">
         <v>26</v>
       </c>
       <c r="D14">
@@ -1329,21 +1335,21 @@
       <c r="E14">
         <v>1</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" t="s">
         <v>92</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G14" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>19</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="6" t="s">
         <v>27</v>
       </c>
       <c r="D15">
@@ -1352,21 +1358,21 @@
       <c r="E15">
         <v>2</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" t="s">
         <v>92</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G15" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>19</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="6" t="s">
         <v>28</v>
       </c>
       <c r="D16">
@@ -1375,21 +1381,21 @@
       <c r="E16">
         <v>3</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" t="s">
         <v>92</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="G16" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>20</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="6" t="s">
         <v>26</v>
       </c>
       <c r="D17">
@@ -1398,21 +1404,21 @@
       <c r="E17">
         <v>1</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" t="s">
         <v>92</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="G17" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>20</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="6" t="s">
         <v>27</v>
       </c>
       <c r="D18">
@@ -1421,21 +1427,21 @@
       <c r="E18">
         <v>2</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F18" t="s">
         <v>92</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="G18" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>20</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="6" t="s">
         <v>28</v>
       </c>
       <c r="D19">
@@ -1444,21 +1450,21 @@
       <c r="E19">
         <v>3</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="F19" t="s">
         <v>92</v>
       </c>
-      <c r="G19" s="6" t="s">
+      <c r="G19" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>21</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="6" t="s">
         <v>26</v>
       </c>
       <c r="D20">
@@ -1467,21 +1473,21 @@
       <c r="E20">
         <v>1</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="F20" t="s">
         <v>92</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="G20" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>21</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="6" t="s">
         <v>27</v>
       </c>
       <c r="D21">
@@ -1490,21 +1496,21 @@
       <c r="E21">
         <v>2</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="F21" t="s">
         <v>92</v>
       </c>
-      <c r="G21" s="6" t="s">
+      <c r="G21" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>21</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="6" t="s">
         <v>28</v>
       </c>
       <c r="D22">
@@ -1513,21 +1519,21 @@
       <c r="E22">
         <v>3</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="F22" t="s">
         <v>92</v>
       </c>
-      <c r="G22" s="6" t="s">
+      <c r="G22" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>54</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D23">
@@ -1536,21 +1542,21 @@
       <c r="E23">
         <v>1</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="F23" t="s">
         <v>93</v>
       </c>
-      <c r="G23" s="6" t="s">
+      <c r="G23" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>54</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="6" t="s">
         <v>37</v>
       </c>
       <c r="D24">
@@ -1559,22 +1565,22 @@
       <c r="E24">
         <v>2</v>
       </c>
-      <c r="F24" s="6" t="s">
+      <c r="F24" t="s">
         <v>93</v>
       </c>
-      <c r="G24" s="6" t="s">
+      <c r="G24" t="s">
         <v>78</v>
       </c>
       <c r="K24" s="2"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>54</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="6" t="s">
         <v>38</v>
       </c>
       <c r="D25">
@@ -1583,22 +1589,22 @@
       <c r="E25">
         <v>3</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="F25" t="s">
         <v>93</v>
       </c>
-      <c r="G25" s="6" t="s">
+      <c r="G25" t="s">
         <v>79</v>
       </c>
       <c r="K25" s="2"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
         <v>54</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="6" t="s">
         <v>39</v>
       </c>
       <c r="D26">
@@ -1607,22 +1613,22 @@
       <c r="E26">
         <v>4</v>
       </c>
-      <c r="F26" s="6" t="s">
+      <c r="F26" t="s">
         <v>93</v>
       </c>
-      <c r="G26" s="6" t="s">
+      <c r="G26" t="s">
         <v>80</v>
       </c>
       <c r="K26" s="2"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="5" t="s">
         <v>41</v>
       </c>
       <c r="D27">
@@ -1631,22 +1637,22 @@
       <c r="E27">
         <v>1</v>
       </c>
-      <c r="F27" s="6" t="s">
+      <c r="F27" t="s">
         <v>94</v>
       </c>
-      <c r="G27" s="6" t="s">
+      <c r="G27" t="s">
         <v>81</v>
       </c>
       <c r="K27" s="2"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="5" t="s">
         <v>42</v>
       </c>
       <c r="D28">
@@ -1655,22 +1661,22 @@
       <c r="E28">
         <v>2</v>
       </c>
-      <c r="F28" s="6" t="s">
+      <c r="F28" t="s">
         <v>94</v>
       </c>
-      <c r="G28" s="6" t="s">
+      <c r="G28" t="s">
         <v>82</v>
       </c>
       <c r="K28" s="2"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="5" t="s">
         <v>43</v>
       </c>
       <c r="D29">
@@ -1679,22 +1685,22 @@
       <c r="E29">
         <v>3</v>
       </c>
-      <c r="F29" s="6" t="s">
+      <c r="F29" t="s">
         <v>94</v>
       </c>
-      <c r="G29" s="6" t="s">
+      <c r="G29" t="s">
         <v>83</v>
       </c>
       <c r="K29" s="2"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
         <v>54</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="5" t="s">
         <v>44</v>
       </c>
       <c r="D30">
@@ -1703,15 +1709,15 @@
       <c r="E30">
         <v>4</v>
       </c>
-      <c r="F30" s="6" t="s">
+      <c r="F30" t="s">
         <v>94</v>
       </c>
-      <c r="G30" s="6" t="s">
+      <c r="G30" t="s">
         <v>84</v>
       </c>
       <c r="K30" s="2"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1727,15 +1733,15 @@
       <c r="E31">
         <v>1</v>
       </c>
-      <c r="F31" s="6" t="s">
+      <c r="F31" t="s">
         <v>95</v>
       </c>
-      <c r="G31" s="6" t="s">
+      <c r="G31" t="s">
         <v>85</v>
       </c>
       <c r="K31" s="2"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1751,15 +1757,15 @@
       <c r="E32">
         <v>2</v>
       </c>
-      <c r="F32" s="6" t="s">
+      <c r="F32" t="s">
         <v>95</v>
       </c>
-      <c r="G32" s="6" t="s">
+      <c r="G32" t="s">
         <v>86</v>
       </c>
       <c r="K32" s="2"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1775,15 +1781,15 @@
       <c r="E33">
         <v>3</v>
       </c>
-      <c r="F33" s="6" t="s">
+      <c r="F33" t="s">
         <v>95</v>
       </c>
-      <c r="G33" s="6" t="s">
+      <c r="G33" t="s">
         <v>87</v>
       </c>
       <c r="K33" s="2"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1799,15 +1805,15 @@
       <c r="E34">
         <v>1</v>
       </c>
-      <c r="F34" s="6" t="s">
+      <c r="F34" t="s">
         <v>96</v>
       </c>
-      <c r="G34" s="6" t="s">
+      <c r="G34" t="s">
         <v>88</v>
       </c>
       <c r="K34" s="2"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1823,15 +1829,15 @@
       <c r="E35">
         <v>2</v>
       </c>
-      <c r="F35" s="6" t="s">
+      <c r="F35" t="s">
         <v>96</v>
       </c>
-      <c r="G35" s="6" t="s">
+      <c r="G35" t="s">
         <v>89</v>
       </c>
       <c r="K35" s="2"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1847,10 +1853,10 @@
       <c r="E36">
         <v>3</v>
       </c>
-      <c r="F36" s="6" t="s">
+      <c r="F36" t="s">
         <v>96</v>
       </c>
-      <c r="G36" s="6" t="s">
+      <c r="G36" t="s">
         <v>90</v>
       </c>
       <c r="K36" s="2"/>
@@ -1862,6 +1868,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="87ddcb0d-d42d-44d1-b07a-22e3752ef0c9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100641454CD1F1E6E428D478A5DC37BACE7" ma:contentTypeVersion="8" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="ef1708d85dca7377bd826ec35b62ca84">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="87ddcb0d-d42d-44d1-b07a-22e3752ef0c9" xmlns:ns4="7798dcc9-908f-468f-826a-c598f412d6fc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="69e720de7d55d3231f99e1910e4c19d8" ns3:_="" ns4:_="">
     <xsd:import namespace="87ddcb0d-d42d-44d1-b07a-22e3752ef0c9"/>
@@ -2050,38 +2073,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="87ddcb0d-d42d-44d1-b07a-22e3752ef0c9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7274836D-657B-48C7-97FD-AD88493854E7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0FE838D2-67DD-483F-BECE-425D67F53E63}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="87ddcb0d-d42d-44d1-b07a-22e3752ef0c9"/>
-    <ds:schemaRef ds:uri="7798dcc9-908f-468f-826a-c598f412d6fc"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2104,9 +2099,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0FE838D2-67DD-483F-BECE-425D67F53E63}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7274836D-657B-48C7-97FD-AD88493854E7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="87ddcb0d-d42d-44d1-b07a-22e3752ef0c9"/>
+    <ds:schemaRef ds:uri="7798dcc9-908f-468f-826a-c598f412d6fc"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>